--- a/sip/workbook.xlsx
+++ b/sip/workbook.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="150">
   <si>
     <t>Status</t>
   </si>
@@ -467,13 +467,16 @@
     <t>Days for Task</t>
   </si>
   <si>
-    <t>COST Here --&gt;</t>
-  </si>
-  <si>
-    <t>1hr annually = 400k</t>
-  </si>
-  <si>
     <t>Due Date</t>
+  </si>
+  <si>
+    <t>Create estimate of cost and labor impact</t>
+  </si>
+  <si>
+    <t>Store Feedback / Listening Session</t>
+  </si>
+  <si>
+    <t>Actual ROI</t>
   </si>
 </sst>
 </file>
@@ -1287,6 +1290,13 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1319,13 +1329,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="205">
@@ -2472,14 +2475,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="36" x14ac:dyDescent="0.25">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="68" t="s">
         <v>103</v>
       </c>
@@ -2533,12 +2536,12 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
@@ -2689,12 +2692,12 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="2:26" s="17" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="10"/>
       <c r="H9" s="24">
         <f>SUM(H8:V8)/7</f>
@@ -2835,12 +2838,12 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="83"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="10"/>
       <c r="H12" s="24">
         <f>SUM(H11:V11)/7</f>
@@ -2963,12 +2966,12 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="79"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="82"/>
       <c r="L15" s="52"/>
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
@@ -3140,12 +3143,12 @@
     </row>
     <row r="18" spans="2:26" s="9" customFormat="1" ht="26.1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="10"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -3280,12 +3283,12 @@
     </row>
     <row r="21" spans="2:26" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
       <c r="G21" s="10"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -3420,12 +3423,12 @@
     </row>
     <row r="24" spans="2:26" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="10"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -3560,12 +3563,12 @@
     </row>
     <row r="27" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="10"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -3699,12 +3702,12 @@
     </row>
     <row r="30" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="10"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -3838,12 +3841,12 @@
     </row>
     <row r="33" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="10"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -3929,12 +3932,12 @@
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="77" t="s">
+      <c r="H36" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="79"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="82"/>
       <c r="L36" s="52"/>
       <c r="M36" s="52"/>
       <c r="N36" s="52"/>
@@ -4109,12 +4112,12 @@
     </row>
     <row r="39" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
       <c r="G39" s="10"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
@@ -4250,12 +4253,12 @@
     </row>
     <row r="42" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
       <c r="G42" s="10"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
@@ -4391,12 +4394,12 @@
     </row>
     <row r="45" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
       <c r="G45" s="10"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -4536,12 +4539,12 @@
     </row>
     <row r="48" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="30"/>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
       <c r="G48" s="10"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4675,12 +4678,12 @@
     </row>
     <row r="51" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="30"/>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
       <c r="G51" s="10"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
@@ -4814,12 +4817,12 @@
     </row>
     <row r="54" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="30"/>
-      <c r="C54" s="76" t="s">
+      <c r="C54" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
       <c r="G54" s="10"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -4934,12 +4937,12 @@
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="77" t="s">
+      <c r="H58" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="79"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="82"/>
       <c r="L58" s="52"/>
       <c r="M58" s="52"/>
       <c r="N58" s="52"/>
@@ -5114,12 +5117,12 @@
     </row>
     <row r="61" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="30"/>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
       <c r="G61" s="10"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
@@ -5257,12 +5260,12 @@
     </row>
     <row r="64" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="30"/>
-      <c r="C64" s="76" t="s">
+      <c r="C64" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
       <c r="G64" s="10"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
@@ -5352,12 +5355,12 @@
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="77" t="s">
+      <c r="H67" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="79"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="81"/>
+      <c r="K67" s="82"/>
       <c r="L67" s="52"/>
       <c r="M67" s="52"/>
       <c r="N67" s="52"/>
@@ -5532,12 +5535,12 @@
     </row>
     <row r="70" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="30"/>
-      <c r="C70" s="76" t="s">
+      <c r="C70" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
       <c r="G70" s="10"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
@@ -5675,12 +5678,12 @@
     </row>
     <row r="73" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="30"/>
-      <c r="C73" s="76" t="s">
+      <c r="C73" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
       <c r="G73" s="10"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
@@ -5818,12 +5821,12 @@
     </row>
     <row r="76" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="30"/>
-      <c r="C76" s="76" t="s">
+      <c r="C76" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
       <c r="G76" s="10"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
@@ -5959,12 +5962,12 @@
     </row>
     <row r="79" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="30"/>
-      <c r="C79" s="76" t="s">
+      <c r="C79" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
       <c r="G79" s="10"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
@@ -6026,12 +6029,12 @@
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="77" t="s">
+      <c r="H82" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I82" s="78"/>
-      <c r="J82" s="78"/>
-      <c r="K82" s="79"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="81"/>
+      <c r="K82" s="82"/>
       <c r="L82" s="52"/>
       <c r="M82" s="52"/>
       <c r="N82" s="52"/>
@@ -6206,12 +6209,12 @@
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B85" s="30"/>
-      <c r="C85" s="76" t="s">
+      <c r="C85" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
       <c r="G85" s="10"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
@@ -6347,12 +6350,12 @@
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B88" s="30"/>
-      <c r="C88" s="76" t="s">
+      <c r="C88" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
       <c r="G88" s="10"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
@@ -6488,12 +6491,12 @@
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B91" s="30"/>
-      <c r="C91" s="76" t="s">
+      <c r="C91" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="76"/>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
       <c r="G91" s="10"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
@@ -6629,12 +6632,12 @@
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B94" s="30"/>
-      <c r="C94" s="76" t="s">
+      <c r="C94" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
       <c r="G94" s="10"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
@@ -6770,12 +6773,12 @@
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B97" s="30"/>
-      <c r="C97" s="76" t="s">
+      <c r="C97" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="76"/>
-      <c r="E97" s="76"/>
-      <c r="F97" s="76"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="79"/>
+      <c r="F97" s="79"/>
       <c r="G97" s="10"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
@@ -6911,12 +6914,12 @@
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B100" s="30"/>
-      <c r="C100" s="76" t="s">
+      <c r="C100" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
       <c r="G100" s="10"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
@@ -7054,12 +7057,12 @@
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B103" s="30"/>
-      <c r="C103" s="76" t="s">
+      <c r="C103" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
       <c r="G103" s="10"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
@@ -7195,12 +7198,12 @@
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B106" s="30"/>
-      <c r="C106" s="76" t="s">
+      <c r="C106" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
       <c r="G106" s="10"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
@@ -7336,12 +7339,12 @@
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B109" s="30"/>
-      <c r="C109" s="76" t="s">
+      <c r="C109" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
       <c r="G109" s="10"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
@@ -7429,12 +7432,12 @@
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
       <c r="G112" s="10"/>
-      <c r="H112" s="77" t="s">
+      <c r="H112" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I112" s="78"/>
-      <c r="J112" s="78"/>
-      <c r="K112" s="79"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="82"/>
       <c r="L112" s="52"/>
       <c r="M112" s="52"/>
       <c r="N112" s="52"/>
@@ -7609,12 +7612,12 @@
     </row>
     <row r="115" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B115" s="30"/>
-      <c r="C115" s="76" t="s">
+      <c r="C115" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
       <c r="G115" s="10"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
@@ -7752,12 +7755,12 @@
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" s="30"/>
-      <c r="C118" s="76" t="s">
+      <c r="C118" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="76"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="76"/>
+      <c r="D118" s="79"/>
+      <c r="E118" s="79"/>
+      <c r="F118" s="79"/>
       <c r="G118" s="10"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
@@ -7895,12 +7898,12 @@
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B121" s="30"/>
-      <c r="C121" s="76" t="s">
+      <c r="C121" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
       <c r="G121" s="10"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
@@ -8040,12 +8043,12 @@
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B124" s="30"/>
-      <c r="C124" s="76" t="s">
+      <c r="C124" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="76"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="76"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="79"/>
       <c r="G124" s="10"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
@@ -8183,12 +8186,12 @@
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B127" s="30"/>
-      <c r="C127" s="76" t="s">
+      <c r="C127" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D127" s="76"/>
-      <c r="E127" s="76"/>
-      <c r="F127" s="76"/>
+      <c r="D127" s="79"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="79"/>
       <c r="G127" s="10"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
@@ -8324,12 +8327,12 @@
     </row>
     <row r="130" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B130" s="30"/>
-      <c r="C130" s="76" t="s">
+      <c r="C130" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="76"/>
-      <c r="E130" s="76"/>
-      <c r="F130" s="76"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="79"/>
+      <c r="F130" s="79"/>
       <c r="G130" s="10"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
@@ -8417,12 +8420,12 @@
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
       <c r="G133" s="10"/>
-      <c r="H133" s="77" t="s">
+      <c r="H133" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I133" s="78"/>
-      <c r="J133" s="78"/>
-      <c r="K133" s="79"/>
+      <c r="I133" s="81"/>
+      <c r="J133" s="81"/>
+      <c r="K133" s="82"/>
       <c r="L133" s="52"/>
       <c r="M133" s="52"/>
       <c r="N133" s="52"/>
@@ -8597,12 +8600,12 @@
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B136" s="30"/>
-      <c r="C136" s="76" t="s">
+      <c r="C136" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D136" s="76"/>
-      <c r="E136" s="76"/>
-      <c r="F136" s="76"/>
+      <c r="D136" s="79"/>
+      <c r="E136" s="79"/>
+      <c r="F136" s="79"/>
       <c r="G136" s="10"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -8737,12 +8740,12 @@
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B139" s="30"/>
-      <c r="C139" s="76" t="s">
+      <c r="C139" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D139" s="76"/>
-      <c r="E139" s="76"/>
-      <c r="F139" s="76"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="79"/>
       <c r="G139" s="10"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
@@ -8880,12 +8883,12 @@
     </row>
     <row r="142" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B142" s="30"/>
-      <c r="C142" s="76" t="s">
+      <c r="C142" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D142" s="76"/>
-      <c r="E142" s="76"/>
-      <c r="F142" s="76"/>
+      <c r="D142" s="79"/>
+      <c r="E142" s="79"/>
+      <c r="F142" s="79"/>
       <c r="G142" s="10"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
@@ -9021,12 +9024,12 @@
     </row>
     <row r="145" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B145" s="30"/>
-      <c r="C145" s="76" t="s">
+      <c r="C145" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D145" s="76"/>
-      <c r="E145" s="76"/>
-      <c r="F145" s="76"/>
+      <c r="D145" s="79"/>
+      <c r="E145" s="79"/>
+      <c r="F145" s="79"/>
       <c r="G145" s="10"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
@@ -9162,12 +9165,12 @@
     </row>
     <row r="148" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B148" s="30"/>
-      <c r="C148" s="76" t="s">
+      <c r="C148" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="76"/>
-      <c r="E148" s="76"/>
-      <c r="F148" s="76"/>
+      <c r="D148" s="79"/>
+      <c r="E148" s="79"/>
+      <c r="F148" s="79"/>
       <c r="G148" s="10"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
@@ -9255,12 +9258,12 @@
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
       <c r="G151" s="10"/>
-      <c r="H151" s="77" t="s">
+      <c r="H151" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I151" s="78"/>
-      <c r="J151" s="78"/>
-      <c r="K151" s="79"/>
+      <c r="I151" s="81"/>
+      <c r="J151" s="81"/>
+      <c r="K151" s="82"/>
       <c r="L151" s="52"/>
       <c r="M151" s="52"/>
       <c r="N151" s="52"/>
@@ -9435,12 +9438,12 @@
     </row>
     <row r="154" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B154" s="30"/>
-      <c r="C154" s="76" t="s">
+      <c r="C154" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D154" s="76"/>
-      <c r="E154" s="76"/>
-      <c r="F154" s="76"/>
+      <c r="D154" s="79"/>
+      <c r="E154" s="79"/>
+      <c r="F154" s="79"/>
       <c r="G154" s="10"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
@@ -9576,12 +9579,12 @@
     </row>
     <row r="157" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B157" s="30"/>
-      <c r="C157" s="76" t="s">
+      <c r="C157" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D157" s="76"/>
-      <c r="E157" s="76"/>
-      <c r="F157" s="76"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
+      <c r="F157" s="79"/>
       <c r="G157" s="10"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
@@ -9717,12 +9720,12 @@
     </row>
     <row r="160" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B160" s="30"/>
-      <c r="C160" s="76" t="s">
+      <c r="C160" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D160" s="76"/>
-      <c r="E160" s="76"/>
-      <c r="F160" s="76"/>
+      <c r="D160" s="79"/>
+      <c r="E160" s="79"/>
+      <c r="F160" s="79"/>
       <c r="G160" s="10"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
@@ -9858,12 +9861,12 @@
     </row>
     <row r="163" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B163" s="30"/>
-      <c r="C163" s="76" t="s">
+      <c r="C163" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D163" s="76"/>
-      <c r="E163" s="76"/>
-      <c r="F163" s="76"/>
+      <c r="D163" s="79"/>
+      <c r="E163" s="79"/>
+      <c r="F163" s="79"/>
       <c r="G163" s="10"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
@@ -9999,12 +10002,12 @@
     </row>
     <row r="166" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B166" s="30"/>
-      <c r="C166" s="76" t="s">
+      <c r="C166" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D166" s="76"/>
-      <c r="E166" s="76"/>
-      <c r="F166" s="76"/>
+      <c r="D166" s="79"/>
+      <c r="E166" s="79"/>
+      <c r="F166" s="79"/>
       <c r="G166" s="10"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
@@ -10067,12 +10070,12 @@
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
       <c r="G169" s="10"/>
-      <c r="H169" s="77" t="s">
+      <c r="H169" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I169" s="78"/>
-      <c r="J169" s="78"/>
-      <c r="K169" s="79"/>
+      <c r="I169" s="81"/>
+      <c r="J169" s="81"/>
+      <c r="K169" s="82"/>
       <c r="L169" s="52"/>
       <c r="M169" s="52"/>
       <c r="N169" s="52"/>
@@ -10247,12 +10250,12 @@
     </row>
     <row r="172" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B172" s="30"/>
-      <c r="C172" s="76" t="s">
+      <c r="C172" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="76"/>
-      <c r="E172" s="76"/>
-      <c r="F172" s="76"/>
+      <c r="D172" s="79"/>
+      <c r="E172" s="79"/>
+      <c r="F172" s="79"/>
       <c r="G172" s="10"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
@@ -10388,12 +10391,12 @@
     </row>
     <row r="175" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B175" s="30"/>
-      <c r="C175" s="76" t="s">
+      <c r="C175" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D175" s="76"/>
-      <c r="E175" s="76"/>
-      <c r="F175" s="76"/>
+      <c r="D175" s="79"/>
+      <c r="E175" s="79"/>
+      <c r="F175" s="79"/>
       <c r="G175" s="10"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
@@ -10531,12 +10534,12 @@
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B178" s="30"/>
-      <c r="C178" s="76" t="s">
+      <c r="C178" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D178" s="76"/>
-      <c r="E178" s="76"/>
-      <c r="F178" s="76"/>
+      <c r="D178" s="79"/>
+      <c r="E178" s="79"/>
+      <c r="F178" s="79"/>
       <c r="G178" s="10"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
@@ -10672,12 +10675,12 @@
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B181" s="30"/>
-      <c r="C181" s="76" t="s">
+      <c r="C181" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D181" s="76"/>
-      <c r="E181" s="76"/>
-      <c r="F181" s="76"/>
+      <c r="D181" s="79"/>
+      <c r="E181" s="79"/>
+      <c r="F181" s="79"/>
       <c r="G181" s="10"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
@@ -10765,12 +10768,12 @@
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
       <c r="G184" s="10"/>
-      <c r="H184" s="77" t="s">
+      <c r="H184" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I184" s="78"/>
-      <c r="J184" s="78"/>
-      <c r="K184" s="79"/>
+      <c r="I184" s="81"/>
+      <c r="J184" s="81"/>
+      <c r="K184" s="82"/>
       <c r="L184" s="52"/>
       <c r="M184" s="52"/>
       <c r="N184" s="52"/>
@@ -10945,12 +10948,12 @@
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B187" s="30"/>
-      <c r="C187" s="76" t="s">
+      <c r="C187" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D187" s="76"/>
-      <c r="E187" s="76"/>
-      <c r="F187" s="76"/>
+      <c r="D187" s="79"/>
+      <c r="E187" s="79"/>
+      <c r="F187" s="79"/>
       <c r="G187" s="10"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
@@ -11086,12 +11089,12 @@
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B190" s="30"/>
-      <c r="C190" s="76" t="s">
+      <c r="C190" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D190" s="76"/>
-      <c r="E190" s="76"/>
-      <c r="F190" s="76"/>
+      <c r="D190" s="79"/>
+      <c r="E190" s="79"/>
+      <c r="F190" s="79"/>
       <c r="G190" s="10"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
@@ -11227,12 +11230,12 @@
     </row>
     <row r="193" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B193" s="30"/>
-      <c r="C193" s="76" t="s">
+      <c r="C193" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D193" s="76"/>
-      <c r="E193" s="76"/>
-      <c r="F193" s="76"/>
+      <c r="D193" s="79"/>
+      <c r="E193" s="79"/>
+      <c r="F193" s="79"/>
       <c r="G193" s="10"/>
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
@@ -11293,12 +11296,12 @@
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
       <c r="G196" s="10"/>
-      <c r="H196" s="77" t="s">
+      <c r="H196" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="I196" s="78"/>
-      <c r="J196" s="78"/>
-      <c r="K196" s="79"/>
+      <c r="I196" s="81"/>
+      <c r="J196" s="81"/>
+      <c r="K196" s="82"/>
       <c r="L196" s="52"/>
       <c r="M196" s="52"/>
       <c r="N196" s="52"/>
@@ -11473,12 +11476,12 @@
     </row>
     <row r="199" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B199" s="30"/>
-      <c r="C199" s="76" t="s">
+      <c r="C199" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D199" s="76"/>
-      <c r="E199" s="76"/>
-      <c r="F199" s="76"/>
+      <c r="D199" s="79"/>
+      <c r="E199" s="79"/>
+      <c r="F199" s="79"/>
       <c r="G199" s="10"/>
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
@@ -11614,12 +11617,12 @@
     </row>
     <row r="202" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B202" s="30"/>
-      <c r="C202" s="76" t="s">
+      <c r="C202" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D202" s="76"/>
-      <c r="E202" s="76"/>
-      <c r="F202" s="76"/>
+      <c r="D202" s="79"/>
+      <c r="E202" s="79"/>
+      <c r="F202" s="79"/>
       <c r="G202" s="10"/>
       <c r="H202" s="27"/>
       <c r="I202" s="27"/>
@@ -11755,12 +11758,12 @@
     </row>
     <row r="205" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B205" s="30"/>
-      <c r="C205" s="76" t="s">
+      <c r="C205" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D205" s="76"/>
-      <c r="E205" s="76"/>
-      <c r="F205" s="76"/>
+      <c r="D205" s="79"/>
+      <c r="E205" s="79"/>
+      <c r="F205" s="79"/>
       <c r="G205" s="10"/>
       <c r="H205" s="27"/>
       <c r="I205" s="27"/>
@@ -11896,12 +11899,12 @@
     </row>
     <row r="208" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B208" s="30"/>
-      <c r="C208" s="76" t="s">
+      <c r="C208" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D208" s="76"/>
-      <c r="E208" s="76"/>
-      <c r="F208" s="76"/>
+      <c r="D208" s="79"/>
+      <c r="E208" s="79"/>
+      <c r="F208" s="79"/>
       <c r="G208" s="10"/>
       <c r="H208" s="27"/>
       <c r="I208" s="27"/>
@@ -12010,12 +12013,12 @@
     </row>
     <row r="211" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B211" s="30"/>
-      <c r="C211" s="76" t="s">
+      <c r="C211" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D211" s="76"/>
-      <c r="E211" s="76"/>
-      <c r="F211" s="76"/>
+      <c r="D211" s="79"/>
+      <c r="E211" s="79"/>
+      <c r="F211" s="79"/>
       <c r="G211" s="10"/>
       <c r="H211" s="27"/>
       <c r="I211" s="27"/>
@@ -13500,10 +13503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13511,68 +13514,73 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" customWidth="1"/>
-    <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" customWidth="1"/>
-    <col min="31" max="33" width="12.140625" customWidth="1"/>
-    <col min="35" max="35" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" customWidth="1"/>
+    <col min="31" max="31" width="12" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" customWidth="1"/>
+    <col min="33" max="35" width="12.140625" customWidth="1"/>
+    <col min="37" max="38" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="84" t="s">
+    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="84" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="84" t="s">
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="84" t="s">
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="86"/>
-    </row>
-    <row r="2" spans="1:35" ht="90" x14ac:dyDescent="0.25">
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="89"/>
+    </row>
+    <row r="2" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
         <v>142</v>
       </c>
@@ -13582,102 +13590,111 @@
       <c r="D2" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="G2" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="H2" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="I2" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="J2" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="K2" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="L2" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="71" t="s">
+      <c r="M2" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="N2" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="O2" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="P2" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="Q2" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="R2" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="S2" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="71" t="s">
+      <c r="T2" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="T2" s="72" t="s">
+      <c r="U2" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="V2" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="U2" s="71" t="s">
+      <c r="W2" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="V2" s="71" t="s">
+      <c r="X2" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="W2" s="72" t="s">
+      <c r="Y2" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="X2" s="71" t="s">
+      <c r="Z2" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="73" t="s">
+      <c r="AA2" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" s="71" t="s">
+      <c r="AB2" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="AA2" s="72" t="s">
+      <c r="AC2" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="AB2" s="71" t="s">
+      <c r="AD2" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="AC2" s="71" t="s">
+      <c r="AE2" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="AD2" s="72" t="s">
+      <c r="AF2" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="AE2" s="71" t="s">
+      <c r="AG2" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="AF2" s="71" t="s">
+      <c r="AH2" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="AG2" s="71" t="s">
+      <c r="AI2" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="AH2" s="73" t="s">
+      <c r="AJ2" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" s="71" t="s">
+      <c r="AK2" s="71" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="AL2" s="71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="74"/>
@@ -13711,48 +13728,53 @@
       <c r="AD3" s="74"/>
       <c r="AE3" s="74"/>
       <c r="AF3" s="74"/>
-      <c r="AG3" s="74">
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74">
         <v>16</v>
       </c>
-      <c r="AH3" s="74">
+      <c r="AJ3" s="74">
         <v>0</v>
       </c>
-      <c r="AI3" s="74"/>
-    </row>
-    <row r="4" spans="1:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+    </row>
+    <row r="4" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
       <c r="D4" s="75"/>
-      <c r="E4" s="75">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75">
         <v>13</v>
       </c>
-      <c r="F4" s="75">
+      <c r="G4" s="75">
         <v>12</v>
       </c>
-      <c r="G4" s="75"/>
       <c r="H4" s="75"/>
       <c r="I4" s="75"/>
-      <c r="J4" s="75">
+      <c r="J4" s="75"/>
+      <c r="K4" s="75">
         <v>12</v>
       </c>
-      <c r="K4" s="75"/>
       <c r="L4" s="75"/>
-      <c r="M4" s="75">
+      <c r="M4" s="75"/>
+      <c r="N4" s="75">
         <v>12</v>
       </c>
-      <c r="N4" s="75"/>
       <c r="O4" s="75"/>
       <c r="P4" s="75"/>
       <c r="Q4" s="75"/>
       <c r="R4" s="75"/>
-      <c r="S4" s="75">
+      <c r="S4" s="75"/>
+      <c r="T4" s="75">
         <v>12</v>
       </c>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
+      <c r="U4" s="75">
+        <v>12</v>
+      </c>
       <c r="V4" s="75"/>
       <c r="W4" s="75"/>
       <c r="X4" s="75"/>
@@ -13762,75 +13784,71 @@
       <c r="AB4" s="75"/>
       <c r="AC4" s="75"/>
       <c r="AD4" s="75"/>
-      <c r="AE4" s="75">
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75">
         <v>3</v>
       </c>
-      <c r="AF4" s="75">
+      <c r="AH4" s="75">
         <v>3</v>
       </c>
-      <c r="AG4" s="75">
+      <c r="AI4" s="75">
         <v>2</v>
       </c>
-      <c r="AH4" s="75">
+      <c r="AJ4" s="75">
         <v>0</v>
       </c>
-      <c r="AI4" s="75"/>
-    </row>
-    <row r="5" spans="1:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+    </row>
+    <row r="5" spans="1:38" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>147</v>
-      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:T1"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AD1:AL1"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
